--- a/Autoress_P_result/jama3663/others/09999_99.9_99.9.xlsx
+++ b/Autoress_P_result/jama3663/others/09999_99.9_99.9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shima\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shima\OneDrive\デスクトップ\gekitotsu\FORT_PLUS\Autoress_P_Git\Autoress_P_result\jama3663\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB98974E-5C47-4698-AA24-6F89118D3E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1CE185-00A6-4D48-B113-B9EAFEBC9CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F3">
-        <f>COUNTIF(D2:D3664,"Draw")</f>
+        <f>COUNTIF(D2:D3664,"Draw")+COUNTIF(D2:D3664,"TimeOut")</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -1046,7 +1046,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F6">
-        <f>COUNTIF(D3665:D7327,"Draw")</f>
+        <f>COUNTIF(D3665:D7327,"Draw")+COUNTIF(D3665:D7327,"TimeOut")</f>
         <v>0</v>
       </c>
       <c r="G6">
